--- a/test_data/installation/logisticsDB_vessel_python.xlsx
+++ b/test_data/installation/logisticsDB_vessel_python.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="23000" windowHeight="15140" tabRatio="619" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="23000" windowHeight="15140" tabRatio="619" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -5038,8 +5038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5541,8 +5541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6536,7 +6536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
@@ -7372,8 +7372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7574,8 +7574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8077,8 +8077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8657,8 +8657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8824,8 +8824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9186,8 +9186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
